--- a/Data/Osteomyelitis_Underlying_Sex_Mortality_Trend.xlsx
+++ b/Data/Osteomyelitis_Underlying_Sex_Mortality_Trend.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ksanaka/Desktop/Research/Osteomyelitis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40817E40-8948-1F41-A738-1FFD38AA6C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CBF9D9-2C7E-DA45-B0D3-74BE632A752F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="820" windowWidth="28040" windowHeight="17200" activeTab="2" xr2:uid="{27BFCE9A-418F-194A-85EC-A6F9F4228135}"/>
+    <workbookView xWindow="1580" yWindow="1000" windowWidth="28040" windowHeight="17200" activeTab="2" xr2:uid="{27BFCE9A-418F-194A-85EC-A6F9F4228135}"/>
   </bookViews>
   <sheets>
     <sheet name="Multiple Cause of Death, 1999-2" sheetId="1" r:id="rId1"/>
@@ -3619,7 +3619,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="B24" sqref="B24:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3643,7 +3643,7 @@
         <v>1999</v>
       </c>
       <c r="B2">
-        <v>0.47</v>
+        <v>0.59</v>
       </c>
       <c r="C2">
         <v>0.42</v>
@@ -3657,7 +3657,7 @@
         <v>2000</v>
       </c>
       <c r="B3">
-        <v>0.56000000000000005</v>
+        <v>0.71</v>
       </c>
       <c r="C3">
         <v>0.51</v>
@@ -3671,7 +3671,7 @@
         <v>2001</v>
       </c>
       <c r="B4">
-        <v>0.57999999999999996</v>
+        <v>0.74</v>
       </c>
       <c r="C4">
         <v>0.54</v>
@@ -3685,7 +3685,7 @@
         <v>2002</v>
       </c>
       <c r="B5">
-        <v>0.6</v>
+        <v>0.76</v>
       </c>
       <c r="C5">
         <v>0.55000000000000004</v>
@@ -3699,7 +3699,7 @@
         <v>2003</v>
       </c>
       <c r="B6">
-        <v>0.6</v>
+        <v>0.77</v>
       </c>
       <c r="C6">
         <v>0.56000000000000005</v>
@@ -3713,7 +3713,7 @@
         <v>2004</v>
       </c>
       <c r="B7">
-        <v>0.64</v>
+        <v>0.82</v>
       </c>
       <c r="C7">
         <v>0.6</v>
@@ -3727,7 +3727,7 @@
         <v>2005</v>
       </c>
       <c r="B8">
-        <v>0.61</v>
+        <v>0.78</v>
       </c>
       <c r="C8">
         <v>0.56999999999999995</v>
@@ -3741,7 +3741,7 @@
         <v>2006</v>
       </c>
       <c r="B9">
-        <v>0.61</v>
+        <v>0.78</v>
       </c>
       <c r="C9">
         <v>0.56999999999999995</v>
@@ -3755,7 +3755,7 @@
         <v>2007</v>
       </c>
       <c r="B10">
-        <v>0.64</v>
+        <v>0.82</v>
       </c>
       <c r="C10">
         <v>0.6</v>
@@ -3769,7 +3769,7 @@
         <v>2008</v>
       </c>
       <c r="B11">
-        <v>0.65</v>
+        <v>0.83</v>
       </c>
       <c r="C11">
         <v>0.6</v>
@@ -3783,7 +3783,7 @@
         <v>2009</v>
       </c>
       <c r="B12">
-        <v>0.62</v>
+        <v>0.78</v>
       </c>
       <c r="C12">
         <v>0.56999999999999995</v>
@@ -3797,7 +3797,7 @@
         <v>2010</v>
       </c>
       <c r="B13">
-        <v>0.64</v>
+        <v>0.82</v>
       </c>
       <c r="C13">
         <v>0.6</v>
@@ -3811,7 +3811,7 @@
         <v>2011</v>
       </c>
       <c r="B14">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="C14">
         <v>0.63</v>
@@ -3825,7 +3825,7 @@
         <v>2012</v>
       </c>
       <c r="B15">
-        <v>0.69</v>
+        <v>0.88</v>
       </c>
       <c r="C15">
         <v>0.65</v>
@@ -3839,7 +3839,7 @@
         <v>2013</v>
       </c>
       <c r="B16">
-        <v>0.68</v>
+        <v>0.87</v>
       </c>
       <c r="C16">
         <v>0.64</v>
@@ -3853,7 +3853,7 @@
         <v>2014</v>
       </c>
       <c r="B17">
-        <v>0.74</v>
+        <v>0.94</v>
       </c>
       <c r="C17">
         <v>0.69</v>
@@ -3867,7 +3867,7 @@
         <v>2015</v>
       </c>
       <c r="B18">
-        <v>0.79</v>
+        <v>1.01</v>
       </c>
       <c r="C18">
         <v>0.75</v>
@@ -3881,7 +3881,7 @@
         <v>2016</v>
       </c>
       <c r="B19">
-        <v>0.83</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
         <v>0.78</v>
@@ -3895,7 +3895,7 @@
         <v>2017</v>
       </c>
       <c r="B20">
-        <v>0.93</v>
+        <v>1.19</v>
       </c>
       <c r="C20">
         <v>0.89</v>
@@ -3909,7 +3909,7 @@
         <v>2018</v>
       </c>
       <c r="B21">
-        <v>0.93</v>
+        <v>1.18</v>
       </c>
       <c r="C21">
         <v>0.88</v>
@@ -3923,7 +3923,7 @@
         <v>2019</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.3</v>
       </c>
       <c r="C22">
         <v>0.97</v>
@@ -3937,7 +3937,7 @@
         <v>2020</v>
       </c>
       <c r="B23">
-        <v>1.1399999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="C23">
         <v>1.0900000000000001</v>
@@ -3950,8 +3950,8 @@
       <c r="A24">
         <v>2021</v>
       </c>
-      <c r="B24" s="2">
-        <v>1.32</v>
+      <c r="B24">
+        <v>1.68</v>
       </c>
       <c r="C24" s="2">
         <v>1.26</v>
@@ -3964,8 +3964,8 @@
       <c r="A25">
         <v>2022</v>
       </c>
-      <c r="B25" s="2">
-        <v>1.4</v>
+      <c r="B25">
+        <v>1.78</v>
       </c>
       <c r="C25" s="2">
         <v>1.34</v>
@@ -3978,8 +3978,8 @@
       <c r="A26">
         <v>2023</v>
       </c>
-      <c r="B26" s="2">
-        <v>1.44</v>
+      <c r="B26">
+        <v>1.84</v>
       </c>
       <c r="C26" s="2">
         <v>1.39</v>
@@ -3998,7 +3998,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="B24" sqref="B24:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4021,8 +4021,8 @@
       <c r="A2">
         <v>1999</v>
       </c>
-      <c r="B2" s="1">
-        <v>0.33</v>
+      <c r="B2">
+        <v>0.42</v>
       </c>
       <c r="C2" s="1">
         <v>0.3</v>
@@ -4035,8 +4035,8 @@
       <c r="A3">
         <v>2000</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.35</v>
+      <c r="B3">
+        <v>0.44</v>
       </c>
       <c r="C3" s="1">
         <v>0.32</v>
@@ -4049,8 +4049,8 @@
       <c r="A4">
         <v>2001</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.41</v>
+      <c r="B4">
+        <v>0.52</v>
       </c>
       <c r="C4" s="1">
         <v>0.38</v>
@@ -4063,8 +4063,8 @@
       <c r="A5">
         <v>2002</v>
       </c>
-      <c r="B5" s="1">
-        <v>0.4</v>
+      <c r="B5">
+        <v>0.51</v>
       </c>
       <c r="C5" s="1">
         <v>0.37</v>
@@ -4077,8 +4077,8 @@
       <c r="A6">
         <v>2003</v>
       </c>
-      <c r="B6" s="1">
-        <v>0.44</v>
+      <c r="B6">
+        <v>0.56000000000000005</v>
       </c>
       <c r="C6" s="1">
         <v>0.4</v>
@@ -4091,8 +4091,8 @@
       <c r="A7">
         <v>2004</v>
       </c>
-      <c r="B7" s="1">
-        <v>0.47</v>
+      <c r="B7">
+        <v>0.6</v>
       </c>
       <c r="C7" s="1">
         <v>0.44</v>
@@ -4105,8 +4105,8 @@
       <c r="A8">
         <v>2005</v>
       </c>
-      <c r="B8" s="1">
-        <v>0.45</v>
+      <c r="B8">
+        <v>0.56999999999999995</v>
       </c>
       <c r="C8" s="1">
         <v>0.42</v>
@@ -4119,8 +4119,8 @@
       <c r="A9">
         <v>2006</v>
       </c>
-      <c r="B9" s="1">
-        <v>0.41</v>
+      <c r="B9">
+        <v>0.53</v>
       </c>
       <c r="C9" s="1">
         <v>0.38</v>
@@ -4133,8 +4133,8 @@
       <c r="A10">
         <v>2007</v>
       </c>
-      <c r="B10" s="1">
-        <v>0.42</v>
+      <c r="B10">
+        <v>0.53</v>
       </c>
       <c r="C10" s="1">
         <v>0.39</v>
@@ -4147,8 +4147,8 @@
       <c r="A11">
         <v>2008</v>
       </c>
-      <c r="B11" s="1">
-        <v>0.37</v>
+      <c r="B11">
+        <v>0.47</v>
       </c>
       <c r="C11" s="1">
         <v>0.34</v>
@@ -4161,8 +4161,8 @@
       <c r="A12">
         <v>2009</v>
       </c>
-      <c r="B12" s="1">
-        <v>0.4</v>
+      <c r="B12">
+        <v>0.5</v>
       </c>
       <c r="C12" s="1">
         <v>0.37</v>
@@ -4175,8 +4175,8 @@
       <c r="A13">
         <v>2010</v>
       </c>
-      <c r="B13" s="1">
-        <v>0.4</v>
+      <c r="B13">
+        <v>0.51</v>
       </c>
       <c r="C13" s="1">
         <v>0.37</v>
@@ -4189,8 +4189,8 @@
       <c r="A14">
         <v>2011</v>
       </c>
-      <c r="B14" s="1">
-        <v>0.42</v>
+      <c r="B14">
+        <v>0.53</v>
       </c>
       <c r="C14" s="1">
         <v>0.39</v>
@@ -4203,8 +4203,8 @@
       <c r="A15">
         <v>2012</v>
       </c>
-      <c r="B15" s="1">
-        <v>0.44</v>
+      <c r="B15">
+        <v>0.56000000000000005</v>
       </c>
       <c r="C15" s="1">
         <v>0.41</v>
@@ -4217,8 +4217,8 @@
       <c r="A16">
         <v>2013</v>
       </c>
-      <c r="B16" s="1">
-        <v>0.42</v>
+      <c r="B16">
+        <v>0.53</v>
       </c>
       <c r="C16" s="1">
         <v>0.39</v>
@@ -4231,8 +4231,8 @@
       <c r="A17">
         <v>2014</v>
       </c>
-      <c r="B17" s="1">
-        <v>0.41</v>
+      <c r="B17">
+        <v>0.53</v>
       </c>
       <c r="C17" s="1">
         <v>0.39</v>
@@ -4245,8 +4245,8 @@
       <c r="A18">
         <v>2015</v>
       </c>
-      <c r="B18" s="1">
-        <v>0.49</v>
+      <c r="B18">
+        <v>0.62</v>
       </c>
       <c r="C18" s="1">
         <v>0.46</v>
@@ -4259,8 +4259,8 @@
       <c r="A19">
         <v>2016</v>
       </c>
-      <c r="B19" s="1">
-        <v>0.5</v>
+      <c r="B19">
+        <v>0.64</v>
       </c>
       <c r="C19" s="1">
         <v>0.47</v>
@@ -4273,8 +4273,8 @@
       <c r="A20">
         <v>2017</v>
       </c>
-      <c r="B20" s="1">
-        <v>0.53</v>
+      <c r="B20">
+        <v>0.67</v>
       </c>
       <c r="C20" s="1">
         <v>0.5</v>
@@ -4287,8 +4287,8 @@
       <c r="A21">
         <v>2018</v>
       </c>
-      <c r="B21" s="1">
-        <v>0.56999999999999995</v>
+      <c r="B21">
+        <v>0.72</v>
       </c>
       <c r="C21" s="1">
         <v>0.54</v>
@@ -4301,8 +4301,8 @@
       <c r="A22">
         <v>2019</v>
       </c>
-      <c r="B22" s="1">
-        <v>0.62</v>
+      <c r="B22">
+        <v>0.79</v>
       </c>
       <c r="C22" s="1">
         <v>0.59</v>
@@ -4315,8 +4315,8 @@
       <c r="A23">
         <v>2020</v>
       </c>
-      <c r="B23" s="1">
-        <v>0.66</v>
+      <c r="B23">
+        <v>0.84</v>
       </c>
       <c r="C23" s="1">
         <v>0.63</v>
@@ -4329,8 +4329,8 @@
       <c r="A24">
         <v>2021</v>
       </c>
-      <c r="B24" s="1">
-        <v>0.83</v>
+      <c r="B24">
+        <v>1.05</v>
       </c>
       <c r="C24" s="1">
         <v>0.79</v>
@@ -4343,8 +4343,8 @@
       <c r="A25">
         <v>2022</v>
       </c>
-      <c r="B25" s="1">
-        <v>0.81</v>
+      <c r="B25">
+        <v>1.03</v>
       </c>
       <c r="C25" s="1">
         <v>0.77</v>
@@ -4357,8 +4357,8 @@
       <c r="A26">
         <v>2023</v>
       </c>
-      <c r="B26" s="1">
-        <v>0.83</v>
+      <c r="B26">
+        <v>1.06</v>
       </c>
       <c r="C26" s="1">
         <v>0.8</v>
